--- a/auxiliary_stuff/STFMR calculator_Py_2.xlsx
+++ b/auxiliary_stuff/STFMR calculator_Py_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANALYSIS\Mn3SnN\ST-FMR\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\owncloud\0_Personal\ANALYSIS\Mn3SnN\ST-FMR\Code\STFMR-Analysis-code\auxiliary_stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="0" windowWidth="30720" windowHeight="13512"/>
+    <workbookView xWindow="3192" yWindow="0" windowWidth="30720" windowHeight="13512"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
